--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan Kumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pavan\opencartv1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E06887-3BB2-4FF3-8AC4-BA1767313D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE9D68-EB54-479F-9615-B75D8543190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="3585" windowWidth="13275" windowHeight="11295" xr2:uid="{F047CC29-9F63-48AE-92FA-A8C3AC9787C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F047CC29-9F63-48AE-92FA-A8C3AC9787C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -47,12 +47,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>pavan123@gmail.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -78,6 +72,21 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>pavan111@gmail.com</t>
+  </si>
+  <si>
+    <t>AZaz09$$</t>
+  </si>
+  <si>
+    <t>reddy123@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan919@gmail.com</t>
+  </si>
+  <si>
+    <t>VALID</t>
   </si>
 </sst>
 </file>
@@ -467,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4001F644-37A2-4BA5-AE0E-A9AD0E195261}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,58 +500,83 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F9E52CEF-08F5-4E44-A88B-BAC9D5BB30B4}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{A572268F-88FF-4A01-974C-7F029251FAD2}"/>
+    <hyperlink ref="B2" r:id="rId2" display="test@123" xr:uid="{A572268F-88FF-4A01-974C-7F029251FAD2}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{9D25D567-99D9-40F4-9E16-526BB64766BF}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{15AABC66-216D-4C7D-86F4-EEAFFBC3604E}"/>
     <hyperlink ref="A4" r:id="rId5" xr:uid="{EFA5075D-5A4A-4E1E-A3FD-99111CA6E311}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{685DE899-43A4-44EF-990C-994DCF31A682}"/>
     <hyperlink ref="A5" r:id="rId7" xr:uid="{69946055-F3FC-4723-B2A2-071BF3C3F7AD}"/>
     <hyperlink ref="B5" r:id="rId8" xr:uid="{B6AAB16F-49CF-46FC-8E26-0F4994062B0A}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{932B05E4-5C44-4627-A4FC-BA027272F196}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{14927994-A74B-412A-AD1B-6A375EC768F8}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{BF18BB8D-5B24-42FC-9EF3-A91402DAEEA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
